--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -474,12 +474,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.951027" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.129147" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.991289" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.050146" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="21.91826" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="20.867773" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.879466" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.855466" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.930125" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.049541" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="21.936327" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="20.875341" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -35,7 +35,7 @@
     <x:t>GetFormattedString()</x:t>
   </x:si>
   <x:si>
-    <x:t>9/2/2010 12:00:00 AM</x:t>
+    <x:t>09/02/2010 00:00:00</x:t>
   </x:si>
   <x:si>
     <x:t>2010-Sep-02</x:t>
@@ -478,7 +478,7 @@
     <x:col min="3" max="3" width="10.855466" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="13.930125" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="20.049541" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="21.936327" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="20.598129" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="20.875341" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
